--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.87</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.02</v>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2201,14 +2288,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.02</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2217,14 +2326,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2233,13 +2364,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1976,214 +2467,6 @@
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2248,36 +2531,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7551</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2286,32 +2569,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1683</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2324,36 +2607,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0647</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2362,36 +2645,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2400,6 +2683,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2531,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
+++ b/数据整理/stocks/A股/上证主板/600580-卧龙电驱.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -616,7 +633,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2467,214 +3012,6 @@
       </c>
       <c r="H13" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0615</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2739,36 +3076,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516780</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证稀土产业ETF</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7551</t>
+          <t>0.0663</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2777,32 +3114,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中证稀土产业ETF</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.08</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1683</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2815,36 +3152,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0647</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2853,36 +3190,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2891,6 +3228,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,136 +3565,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>